--- a/Samuel-Kings-Chronicles-notes/Judges.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Judges.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>英文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>妻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基纳斯（迦勒的兄弟）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +274,70 @@
   </si>
   <si>
     <t>亚拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底波拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deborah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士 4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦南王耶宾大大欺压以色列人20年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士 4:2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉比多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女先知底波拉召巴拉，传耶和华的应许将战胜耶宾王的将军西西拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士 4:6-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴拉率领以色列战胜耶宾全军；以色列制伏并灭绝迦南王耶宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士 4:14-16；士 4:23-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士 5:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基尼人希百（摩西岳父何巴的后裔）之妻雅亿杀死西西拉；底波拉和巴拉作歌赞美神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士 4:17-22；士 5:1-31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,13 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -654,9 +714,13 @@
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -664,13 +728,16 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,253 +745,295 @@
         <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="H33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>59</v>
+      <c r="H36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
